--- a/data/Output_zee.xlsx
+++ b/data/Output_zee.xlsx
@@ -84,13 +84,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL54"/>
+  <dimension ref="A1:BM54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,7 +1262,10 @@
       <c r="BI4" s="2" t="n">
         <v>1058171</v>
       </c>
-      <c r="BJ4" s="6">
+      <c r="BJ4" s="3" t="n">
+        <v>36122727</v>
+      </c>
+      <c r="BK4" s="6">
         <f>ROUND(SUM(P4:BI4), 0)</f>
         <v/>
       </c>
@@ -1420,7 +1423,10 @@
       <c r="BI5" s="2" t="n">
         <v>24.06889010391492</v>
       </c>
-      <c r="BJ5" s="6">
+      <c r="BJ5" s="3" t="n">
+        <v>821.6387205118415</v>
+      </c>
+      <c r="BK5" s="6">
         <f>ROUND(SUM(P5:BI5), 0)</f>
         <v/>
       </c>
@@ -1620,7 +1626,10 @@
         <f>IFERROR((SUMPRODUCT(($O$24:$O$34=$O6)*($E$24:$E$34)*(BH$1/10)*(BH$24:BH$34))/BH10), 0)</f>
         <v/>
       </c>
-      <c r="BI6" s="7" t="n"/>
+      <c r="BI6" s="2">
+        <f>IFERROR((SUMPRODUCT(($O$24:$O$34=$O6)*($E$24:$E$34)*(BI$1/10)*(BI$24:BI$34))/BI10), 0)</f>
+        <v/>
+      </c>
     </row>
     <row r="7" ht="21" customHeight="1">
       <c r="O7" s="1" t="inlineStr">
@@ -1808,7 +1817,10 @@
         <f>IFERROR(SUMPRODUCT(($O$24:$O$34=$O7)*($E$24:$E$34)*(BH$1/10)*(BH$24:BH$34)), 0)</f>
         <v/>
       </c>
-      <c r="BI7" s="7" t="n"/>
+      <c r="BI7" s="2">
+        <f>IFERROR(SUMPRODUCT(($O$24:$O$34=$O7)*($E$24:$E$34)*(BI$1/10)*(BI$24:BI$34)), 0)</f>
+        <v/>
+      </c>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="O8" s="1" t="inlineStr">
@@ -1879,7 +1891,7 @@
           <t>Pristine</t>
         </is>
       </c>
-      <c r="O9" s="6" t="inlineStr">
+      <c r="O9" s="10" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
@@ -2068,7 +2080,7 @@
         <f>ROUND(SUMPRODUCT(BI24:BI9530,$F$24:$F$9530)*BI$1/10, 0)</f>
         <v/>
       </c>
-      <c r="BJ9" s="10">
+      <c r="BK9" s="6">
         <f>ROUND(SUM(P9:BI9), 0)</f>
         <v/>
       </c>
@@ -2080,7 +2092,7 @@
         </is>
       </c>
       <c r="C10" s="8">
-        <f>ROUND((BJ18/BJ5)*100, 0)</f>
+        <f>ROUND((BK18/BK5)*100, 0)</f>
         <v/>
       </c>
       <c r="D10" s="9" t="n"/>
@@ -2100,7 +2112,7 @@
           <t>MAX</t>
         </is>
       </c>
-      <c r="O10" s="6" t="inlineStr">
+      <c r="O10" s="10" t="inlineStr">
         <is>
           <t>Allocated GRP</t>
         </is>
@@ -2289,7 +2301,7 @@
         <f>ROUND(SUMPRODUCT(BI24:BI9530,$E$24:$E$9530)*BI$1/10, 0)</f>
         <v/>
       </c>
-      <c r="BJ10" s="10">
+      <c r="BK10" s="6">
         <f>ROUND(SUM(P10:BI10), 0)</f>
         <v/>
       </c>
@@ -2301,7 +2313,7 @@
         </is>
       </c>
       <c r="C11" s="8">
-        <f>(BK18/BJ18)*100000</f>
+        <f>SUM(BK24:BK55)</f>
         <v/>
       </c>
       <c r="D11" s="9" t="n"/>
@@ -2319,7 +2331,7 @@
         <f>MAX($P$11:$BI$11)</f>
         <v/>
       </c>
-      <c r="O11" s="6" t="inlineStr">
+      <c r="O11" s="10" t="inlineStr">
         <is>
           <t>CPRP</t>
         </is>
@@ -2519,7 +2531,7 @@
         <f>MAX($P$12:$BI$12)</f>
         <v/>
       </c>
-      <c r="O12" s="6" t="inlineStr">
+      <c r="O12" s="10" t="inlineStr">
         <is>
           <t>GRP Allocation %</t>
         </is>
@@ -2719,7 +2731,7 @@
         <f>MAX($P$13:$BI$13)</f>
         <v/>
       </c>
-      <c r="O13" s="6" t="inlineStr">
+      <c r="O13" s="10" t="inlineStr">
         <is>
           <t>Budget Available</t>
         </is>
@@ -2910,7 +2922,7 @@
       </c>
     </row>
     <row r="14" ht="21" customHeight="1">
-      <c r="O14" s="6" t="inlineStr">
+      <c r="O14" s="10" t="inlineStr">
         <is>
           <t>Brand Name</t>
         </is>
@@ -3148,7 +3160,7 @@
       <c r="BJ14" s="3" t="n"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="O15" s="6" t="inlineStr">
+      <c r="O15" s="10" t="inlineStr">
         <is>
           <t>IB No</t>
         </is>
@@ -3680,8 +3692,8 @@
         <v>45565</v>
       </c>
       <c r="BJ17" s="3" t="n"/>
-      <c r="BL17" s="10">
-        <f>ROUND((BJ18/BJ5)*100, 0)</f>
+      <c r="BM17" s="6">
+        <f>ROUND((BK18/BK5)*100, 0)</f>
         <v/>
       </c>
     </row>
@@ -3875,16 +3887,16 @@
         <f>18*BI1</f>
         <v/>
       </c>
-      <c r="BJ18" s="6">
-        <f>SUM(BJ20:BJ9530)</f>
-        <v/>
-      </c>
-      <c r="BK18" s="6">
-        <f>SUM(BK20:BK9530)</f>
-        <v/>
-      </c>
-      <c r="BL18" s="6">
-        <f>(BK18/BJ18)*100000</f>
+      <c r="BK18" s="10">
+        <f>SUM(BK24:BK55)</f>
+        <v/>
+      </c>
+      <c r="BL18" s="10">
+        <f>SUM(BL24:BL55)</f>
+        <v/>
+      </c>
+      <c r="BM18" s="10">
+        <f>IFERROR(( BL18 / BK18 ) * 100000, 0)</f>
         <v/>
       </c>
     </row>
@@ -4660,13 +4672,12 @@
       <c r="BF23" s="1" t="n"/>
       <c r="BG23" s="1" t="n"/>
       <c r="BH23" s="1" t="n"/>
-      <c r="BI23" s="1" t="n"/>
-      <c r="BJ23" s="1" t="inlineStr">
+      <c r="BK23" s="1" t="inlineStr">
         <is>
           <t>TOTAL GRP</t>
         </is>
       </c>
-      <c r="BK23" s="1" t="inlineStr">
+      <c r="BL23" s="1" t="inlineStr">
         <is>
           <t>TOTAL COST</t>
         </is>
@@ -4716,13 +4727,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>2155</v>
+        <v>2095</v>
       </c>
       <c r="L24" t="n">
         <v>93</v>
       </c>
       <c r="M24" t="n">
-        <v>2155</v>
+        <v>2095</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -4870,11 +4881,11 @@
       <c r="BI24" t="n">
         <v>3</v>
       </c>
-      <c r="BJ24">
+      <c r="BK24">
         <f>ROUND(E24*K24/10, 0)</f>
         <v/>
       </c>
-      <c r="BK24">
+      <c r="BL24">
         <f>ROUND(F24*K24/1000000, 0)</f>
         <v/>
       </c>
@@ -4923,13 +4934,13 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>2060</v>
+        <v>2000</v>
       </c>
       <c r="L25" t="n">
         <v>88</v>
       </c>
       <c r="M25" t="n">
-        <v>2060</v>
+        <v>2000</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5077,11 +5088,11 @@
       <c r="BI25" t="n">
         <v>3</v>
       </c>
-      <c r="BJ25">
+      <c r="BK25">
         <f>ROUND(E25*K25/10, 0)</f>
         <v/>
       </c>
-      <c r="BK25">
+      <c r="BL25">
         <f>ROUND(F25*K25/1000000, 0)</f>
         <v/>
       </c>
@@ -5130,13 +5141,13 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>2025</v>
+        <v>1965</v>
       </c>
       <c r="L26" t="n">
         <v>88</v>
       </c>
       <c r="M26" t="n">
-        <v>2025</v>
+        <v>1965</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -5284,11 +5295,11 @@
       <c r="BI26" t="n">
         <v>3</v>
       </c>
-      <c r="BJ26">
+      <c r="BK26">
         <f>ROUND(E26*K26/10, 0)</f>
         <v/>
       </c>
-      <c r="BK26">
+      <c r="BL26">
         <f>ROUND(F26*K26/1000000, 0)</f>
         <v/>
       </c>
@@ -5337,13 +5348,13 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1965</v>
+        <v>1905</v>
       </c>
       <c r="L27" t="n">
         <v>91</v>
       </c>
       <c r="M27" t="n">
-        <v>1965</v>
+        <v>1905</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -5491,11 +5502,11 @@
       <c r="BI27" t="n">
         <v>3</v>
       </c>
-      <c r="BJ27">
+      <c r="BK27">
         <f>ROUND(E27*K27/10, 0)</f>
         <v/>
       </c>
-      <c r="BK27">
+      <c r="BL27">
         <f>ROUND(F27*K27/1000000, 0)</f>
         <v/>
       </c>
@@ -5544,13 +5555,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1865</v>
+        <v>1805</v>
       </c>
       <c r="L28" t="n">
         <v>91</v>
       </c>
       <c r="M28" t="n">
-        <v>1865</v>
+        <v>1805</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -5698,11 +5709,11 @@
       <c r="BI28" t="n">
         <v>3</v>
       </c>
-      <c r="BJ28">
+      <c r="BK28">
         <f>ROUND(E28*K28/10, 0)</f>
         <v/>
       </c>
-      <c r="BK28">
+      <c r="BL28">
         <f>ROUND(F28*K28/1000000, 0)</f>
         <v/>
       </c>
@@ -5751,13 +5762,13 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1805</v>
+        <v>1745</v>
       </c>
       <c r="L29" t="n">
         <v>95</v>
       </c>
       <c r="M29" t="n">
-        <v>1805</v>
+        <v>1745</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -5905,11 +5916,11 @@
       <c r="BI29" t="n">
         <v>3</v>
       </c>
-      <c r="BJ29">
+      <c r="BK29">
         <f>ROUND(E29*K29/10, 0)</f>
         <v/>
       </c>
-      <c r="BK29">
+      <c r="BL29">
         <f>ROUND(F29*K29/1000000, 0)</f>
         <v/>
       </c>
@@ -5958,13 +5969,13 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1725</v>
+        <v>1665</v>
       </c>
       <c r="L30" t="n">
         <v>91</v>
       </c>
       <c r="M30" t="n">
-        <v>1725</v>
+        <v>1665</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -6112,11 +6123,11 @@
       <c r="BI30" t="n">
         <v>3</v>
       </c>
-      <c r="BJ30">
+      <c r="BK30">
         <f>ROUND(E30*K30/10, 0)</f>
         <v/>
       </c>
-      <c r="BK30">
+      <c r="BL30">
         <f>ROUND(F30*K30/1000000, 0)</f>
         <v/>
       </c>
@@ -6165,13 +6176,13 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1625</v>
+        <v>1585</v>
       </c>
       <c r="L31" t="n">
         <v>93</v>
       </c>
       <c r="M31" t="n">
-        <v>1625</v>
+        <v>1585</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -6319,11 +6330,11 @@
       <c r="BI31" t="n">
         <v>2</v>
       </c>
-      <c r="BJ31">
+      <c r="BK31">
         <f>ROUND(E31*K31/10, 0)</f>
         <v/>
       </c>
-      <c r="BK31">
+      <c r="BL31">
         <f>ROUND(F31*K31/1000000, 0)</f>
         <v/>
       </c>
@@ -6372,13 +6383,13 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1530</v>
+        <v>1490</v>
       </c>
       <c r="L32" t="n">
         <v>88</v>
       </c>
       <c r="M32" t="n">
-        <v>1530</v>
+        <v>1490</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -6526,11 +6537,11 @@
       <c r="BI32" t="n">
         <v>2</v>
       </c>
-      <c r="BJ32">
+      <c r="BK32">
         <f>ROUND(E32*K32/10, 0)</f>
         <v/>
       </c>
-      <c r="BK32">
+      <c r="BL32">
         <f>ROUND(F32*K32/1000000, 0)</f>
         <v/>
       </c>
@@ -6579,13 +6590,13 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1510</v>
+        <v>1470</v>
       </c>
       <c r="L33" t="n">
         <v>88</v>
       </c>
       <c r="M33" t="n">
-        <v>1510</v>
+        <v>1470</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -6733,11 +6744,11 @@
       <c r="BI33" t="n">
         <v>2</v>
       </c>
-      <c r="BJ33">
+      <c r="BK33">
         <f>ROUND(E33*K33/10, 0)</f>
         <v/>
       </c>
-      <c r="BK33">
+      <c r="BL33">
         <f>ROUND(F33*K33/1000000, 0)</f>
         <v/>
       </c>
@@ -6786,13 +6797,13 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1470</v>
+        <v>1430</v>
       </c>
       <c r="L34" t="n">
         <v>91</v>
       </c>
       <c r="M34" t="n">
-        <v>1470</v>
+        <v>1430</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -6940,11 +6951,11 @@
       <c r="BI34" t="n">
         <v>2</v>
       </c>
-      <c r="BJ34">
+      <c r="BK34">
         <f>ROUND(E34*K34/10, 0)</f>
         <v/>
       </c>
-      <c r="BK34">
+      <c r="BL34">
         <f>ROUND(F34*K34/1000000, 0)</f>
         <v/>
       </c>
@@ -6993,13 +7004,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1410</v>
+        <v>1370</v>
       </c>
       <c r="L35" t="n">
         <v>91</v>
       </c>
       <c r="M35" t="n">
-        <v>1410</v>
+        <v>1370</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -7147,11 +7158,11 @@
       <c r="BI35" t="n">
         <v>2</v>
       </c>
-      <c r="BJ35">
+      <c r="BK35">
         <f>ROUND(E35*K35/10, 0)</f>
         <v/>
       </c>
-      <c r="BK35">
+      <c r="BL35">
         <f>ROUND(F35*K35/1000000, 0)</f>
         <v/>
       </c>
@@ -7200,13 +7211,13 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1390</v>
+        <v>1350</v>
       </c>
       <c r="L36" t="n">
         <v>95</v>
       </c>
       <c r="M36" t="n">
-        <v>1390</v>
+        <v>1350</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -7354,11 +7365,11 @@
       <c r="BI36" t="n">
         <v>2</v>
       </c>
-      <c r="BJ36">
+      <c r="BK36">
         <f>ROUND(E36*K36/10, 0)</f>
         <v/>
       </c>
-      <c r="BK36">
+      <c r="BL36">
         <f>ROUND(F36*K36/1000000, 0)</f>
         <v/>
       </c>
@@ -7370,11 +7381,11 @@
       <c r="M37" t="n">
         <v>0</v>
       </c>
-      <c r="BJ37">
+      <c r="BK37">
         <f>ROUND(E37*K37/10, 0)</f>
         <v/>
       </c>
-      <c r="BK37">
+      <c r="BL37">
         <f>ROUND(F37*K37/1000000, 0)</f>
         <v/>
       </c>
@@ -7386,11 +7397,11 @@
       <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="BJ38">
+      <c r="BK38">
         <f>ROUND(E38*K38/10, 0)</f>
         <v/>
       </c>
-      <c r="BK38">
+      <c r="BL38">
         <f>ROUND(F38*K38/1000000, 0)</f>
         <v/>
       </c>
@@ -7402,11 +7413,11 @@
       <c r="M39" t="n">
         <v>0</v>
       </c>
-      <c r="BJ39">
+      <c r="BK39">
         <f>ROUND(E39*K39/10, 0)</f>
         <v/>
       </c>
-      <c r="BK39">
+      <c r="BL39">
         <f>ROUND(F39*K39/1000000, 0)</f>
         <v/>
       </c>
@@ -7418,11 +7429,11 @@
       <c r="M40" t="n">
         <v>0</v>
       </c>
-      <c r="BJ40">
+      <c r="BK40">
         <f>ROUND(E40*K40/10, 0)</f>
         <v/>
       </c>
-      <c r="BK40">
+      <c r="BL40">
         <f>ROUND(F40*K40/1000000, 0)</f>
         <v/>
       </c>
@@ -7434,11 +7445,11 @@
       <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="BJ41">
+      <c r="BK41">
         <f>ROUND(E41*K41/10, 0)</f>
         <v/>
       </c>
-      <c r="BK41">
+      <c r="BL41">
         <f>ROUND(F41*K41/1000000, 0)</f>
         <v/>
       </c>
@@ -7450,11 +7461,11 @@
       <c r="M42" t="n">
         <v>0</v>
       </c>
-      <c r="BJ42">
+      <c r="BK42">
         <f>ROUND(E42*K42/10, 0)</f>
         <v/>
       </c>
-      <c r="BK42">
+      <c r="BL42">
         <f>ROUND(F42*K42/1000000, 0)</f>
         <v/>
       </c>
@@ -7466,11 +7477,11 @@
       <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="BJ43">
+      <c r="BK43">
         <f>ROUND(E43*K43/10, 0)</f>
         <v/>
       </c>
-      <c r="BK43">
+      <c r="BL43">
         <f>ROUND(F43*K43/1000000, 0)</f>
         <v/>
       </c>
@@ -7482,11 +7493,11 @@
       <c r="M44" t="n">
         <v>0</v>
       </c>
-      <c r="BJ44">
+      <c r="BK44">
         <f>ROUND(E44*K44/10, 0)</f>
         <v/>
       </c>
-      <c r="BK44">
+      <c r="BL44">
         <f>ROUND(F44*K44/1000000, 0)</f>
         <v/>
       </c>
@@ -7498,11 +7509,11 @@
       <c r="M45" t="n">
         <v>0</v>
       </c>
-      <c r="BJ45">
+      <c r="BK45">
         <f>ROUND(E45*K45/10, 0)</f>
         <v/>
       </c>
-      <c r="BK45">
+      <c r="BL45">
         <f>ROUND(F45*K45/1000000, 0)</f>
         <v/>
       </c>
@@ -7514,11 +7525,11 @@
       <c r="M46" t="n">
         <v>0</v>
       </c>
-      <c r="BJ46">
+      <c r="BK46">
         <f>ROUND(E46*K46/10, 0)</f>
         <v/>
       </c>
-      <c r="BK46">
+      <c r="BL46">
         <f>ROUND(F46*K46/1000000, 0)</f>
         <v/>
       </c>
@@ -7530,11 +7541,11 @@
       <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="BJ47">
+      <c r="BK47">
         <f>ROUND(E47*K47/10, 0)</f>
         <v/>
       </c>
-      <c r="BK47">
+      <c r="BL47">
         <f>ROUND(F47*K47/1000000, 0)</f>
         <v/>
       </c>
@@ -7546,11 +7557,11 @@
       <c r="M48" t="n">
         <v>0</v>
       </c>
-      <c r="BJ48">
+      <c r="BK48">
         <f>ROUND(E48*K48/10, 0)</f>
         <v/>
       </c>
-      <c r="BK48">
+      <c r="BL48">
         <f>ROUND(F48*K48/1000000, 0)</f>
         <v/>
       </c>
@@ -7562,11 +7573,11 @@
       <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="BJ49">
+      <c r="BK49">
         <f>ROUND(E49*K49/10, 0)</f>
         <v/>
       </c>
-      <c r="BK49">
+      <c r="BL49">
         <f>ROUND(F49*K49/1000000, 0)</f>
         <v/>
       </c>
@@ -7578,11 +7589,11 @@
       <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="BJ50">
+      <c r="BK50">
         <f>ROUND(E50*K50/10, 0)</f>
         <v/>
       </c>
-      <c r="BK50">
+      <c r="BL50">
         <f>ROUND(F50*K50/1000000, 0)</f>
         <v/>
       </c>
@@ -7594,11 +7605,11 @@
       <c r="M51" t="n">
         <v>0</v>
       </c>
-      <c r="BJ51">
+      <c r="BK51">
         <f>ROUND(E51*K51/10, 0)</f>
         <v/>
       </c>
-      <c r="BK51">
+      <c r="BL51">
         <f>ROUND(F51*K51/1000000, 0)</f>
         <v/>
       </c>
@@ -7610,11 +7621,11 @@
       <c r="M52" t="n">
         <v>0</v>
       </c>
-      <c r="BJ52">
+      <c r="BK52">
         <f>ROUND(E52*K52/10, 0)</f>
         <v/>
       </c>
-      <c r="BK52">
+      <c r="BL52">
         <f>ROUND(F52*K52/1000000, 0)</f>
         <v/>
       </c>
@@ -7626,11 +7637,11 @@
       <c r="M53" t="n">
         <v>0</v>
       </c>
-      <c r="BJ53">
+      <c r="BK53">
         <f>ROUND(E53*K53/10, 0)</f>
         <v/>
       </c>
-      <c r="BK53">
+      <c r="BL53">
         <f>ROUND(F53*K53/1000000, 0)</f>
         <v/>
       </c>
@@ -7642,11 +7653,11 @@
       <c r="M54" t="n">
         <v>0</v>
       </c>
-      <c r="BJ54">
+      <c r="BK54">
         <f>ROUND(E54*K54/10, 0)</f>
         <v/>
       </c>
-      <c r="BK54">
+      <c r="BL54">
         <f>ROUND(F54*K54/1000000, 0)</f>
         <v/>
       </c>
